--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -177,6 +177,66 @@
   </si>
   <si>
     <t>Mise en page finale</t>
+  </si>
+  <si>
+    <t>Test requêtes PHP sur la base de données + formater en JSON</t>
+  </si>
+  <si>
+    <t>03-02-2019</t>
+  </si>
+  <si>
+    <t>30-01-2019</t>
+  </si>
+  <si>
+    <t>Page d'accueil (Code + Mise en page)</t>
+  </si>
+  <si>
+    <t>04-02-2019</t>
+  </si>
+  <si>
+    <t>InfoQuiz (Mise en page + Code + Vérification d'intent quiz.java)</t>
+  </si>
+  <si>
+    <t>06-02-2019</t>
+  </si>
+  <si>
+    <t>Configuration de la base de données</t>
+  </si>
+  <si>
+    <t>07-02-2019</t>
+  </si>
+  <si>
+    <t>Requêtes PHP + Affichage page Pokemon_vedettes</t>
+  </si>
+  <si>
+    <t>Essai d'intégration des images dans la page Pokemon_vedettes</t>
+  </si>
+  <si>
+    <t>11-02-2019</t>
+  </si>
+  <si>
+    <t>13-02-2019</t>
+  </si>
+  <si>
+    <t>Code pokemon_vedettes + getJSON page fiche_pokemon + Test Intent</t>
+  </si>
+  <si>
+    <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>Code JSON + tests + classe JSON + classe Pokemon</t>
+  </si>
+  <si>
+    <t>17-02-2019</t>
+  </si>
+  <si>
+    <t>Classe Pokemon + tests + Adresse IP + page fiche_pokemon</t>
+  </si>
+  <si>
+    <t>18-02-2019</t>
+  </si>
+  <si>
+    <t>Configuration + application serveur DICJ + Tests</t>
   </si>
 </sst>
 </file>
@@ -357,6 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -371,10 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1689,10 +1749,10 @@
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="19">
         <v>15</v>
       </c>
     </row>
@@ -1796,10 +1856,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="11">
         <f>SUM(C16:C25)</f>
         <v>66</v>
@@ -1939,10 +1999,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="11">
         <f>SUM(C31:C40)</f>
         <v>87</v>
@@ -1969,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,49 +2087,103 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -2142,13 +2256,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2170,22 +2284,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2202,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,9 +2374,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2377,13 +2497,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2405,22 +2525,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2610,10 +2730,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2638,22 +2758,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2843,10 +2963,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2871,22 +2991,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2900,21 +3020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3028,10 +3133,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3046,16 +3173,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Configuration + application serveur DICJ + Tests</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Ça a très bien été, j'ai gagné du temps dans deux parties (BD et page pokémon_vedette. J'essaie de ne pas prendre de retard et pour l'instant ça fonctionne. Je devrais finir la partie Pokédex dans l'itération 2 et peut-être commencer la partie Quiz au même moment.</t>
   </si>
 </sst>
 </file>
@@ -2029,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,7 +2281,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2284,7 +2292,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="23"/>
@@ -2316,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3020,6 +3030,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3133,32 +3158,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3173,9 +3176,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Ça a très bien été, j'ai gagné du temps dans deux parties (BD et page pokémon_vedette. J'essaie de ne pas prendre de retard et pour l'instant ça fonctionne. Je devrais finir la partie Pokédex dans l'itération 2 et peut-être commencer la partie Quiz au même moment.</t>
+  </si>
+  <si>
+    <t>Bouton Cri Pokémon</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C43"/>
+  <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,25 +2008,36 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="10">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="11">
-        <f>SUM(C31:C40)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="str">
-        <f>IF(C26+C41&lt;90,"Il manque "&amp;90-(C26+C41)&amp;"h",IF(C26+C41&gt;90,"Il y a "&amp;(C26+C41)-90&amp;"h de trop",""))</f>
-        <v>Il y a 63h de trop</v>
+      <c r="B42" s="21"/>
+      <c r="C42" s="11">
+        <f>SUM(C31:C41)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="str">
+        <f>IF(C26+C42&lt;90,"Il manque "&amp;90-(C26+C42)&amp;"h",IF(C26+C42&gt;90,"Il y a "&amp;(C26+C42)-90&amp;"h de trop",""))</f>
+        <v>Il y a 64h de trop</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2035,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -3030,21 +3044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3158,10 +3157,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3176,16 +3197,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -246,6 +243,30 @@
   </si>
   <si>
     <t>Bouton Cri Pokémon</t>
+  </si>
+  <si>
+    <t>20-02-2019</t>
+  </si>
+  <si>
+    <t>Tests connexion + Mise en page Pokémon_vedettes(vrai cellulaire)</t>
+  </si>
+  <si>
+    <t>27-02-2019</t>
+  </si>
+  <si>
+    <t>Correction requêtes PHP, afficher InfosPokemon dans page fiche_pokemon</t>
+  </si>
+  <si>
+    <t>28-02-2019</t>
+  </si>
+  <si>
+    <t>01-03-2019</t>
+  </si>
+  <si>
+    <t>Afficher Mega Evolutions dans page fiche_pokemon, nettoyage et découpage de code, mise en page Evolutions et Mega Evolutions fiche_pokemon, Tests</t>
+  </si>
+  <si>
+    <t>Afficher Evolutions dans page fiche_pokemon, modification page Pokemon, creation d'une mise en page xml pour code répétitif, nettoyage de code, découpage de code, Tests</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1714,7 +1738,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1729,12 +1753,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="19">
         <v>15</v>
@@ -1770,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1781,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
@@ -1792,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -1803,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1814,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1825,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1836,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3">
         <v>20</v>
@@ -1847,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1858,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
@@ -1902,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3">
         <v>15</v>
@@ -1913,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>50</v>
@@ -1924,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -1935,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -1946,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -1957,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -1968,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -1979,7 +2003,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -1990,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -2001,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -2012,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2049,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2108,10 +2132,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="15">
         <v>4</v>
@@ -2119,10 +2143,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2130,10 +2154,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2141,10 +2165,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2152,10 +2176,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2163,10 +2187,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="15">
         <v>0.5</v>
@@ -2174,10 +2198,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -2185,10 +2209,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2196,10 +2220,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="15">
         <v>5</v>
@@ -2287,16 +2311,16 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2304,10 +2328,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2340,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2399,35 +2423,55 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2527,18 +2571,18 @@
       <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>2</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2547,7 +2591,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="22"/>
     </row>
@@ -2765,13 +2809,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2780,7 +2824,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="22"/>
     </row>
@@ -2851,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2998,13 +3042,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -3013,7 +3057,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="22"/>
     </row>
@@ -3044,6 +3088,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3157,32 +3216,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3197,9 +3234,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Afficher Evolutions dans page fiche_pokemon, modification page Pokemon, creation d'une mise en page xml pour code répétitif, nettoyage de code, découpage de code, Tests</t>
+  </si>
+  <si>
+    <t>Afficher plusieurs deuxièmes types fiche_pokemon, modification Pokemon, Correction apostrophe BD, tests, mise en page fiche_pokemon</t>
+  </si>
+  <si>
+    <t>04-03-2019</t>
+  </si>
+  <si>
+    <t>Code + Affichage liste_pokemon, Modification requêtes PHP pour les filtres, finir les tests sur fiche_pokemon, Afficher et code les filtres (RadioGroup), tests liste_pokemon, Améliorer le design, Debug BD Charizard 2e type, Ajout des évènements OnClick</t>
   </si>
 </sst>
 </file>
@@ -451,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -465,9 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,10 +1898,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="11">
         <f>SUM(C16:C25)</f>
         <v>66</v>
@@ -2043,10 +2052,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="11">
         <f>SUM(C31:C41)</f>
         <v>88</v>
@@ -2300,10 +2309,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>21.5</v>
@@ -2330,24 +2339,24 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2364,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2467,7 @@
       <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="15">
@@ -2469,20 +2478,34 @@
       <c r="A18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="C18" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2565,13 +2588,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>11.75</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2593,22 +2616,22 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2798,10 +2821,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2826,22 +2849,22 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3031,10 +3054,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -3059,22 +3082,22 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -276,6 +276,42 @@
   </si>
   <si>
     <t>Code + Affichage liste_pokemon, Modification requêtes PHP pour les filtres, finir les tests sur fiche_pokemon, Afficher et code les filtres (RadioGroup), tests liste_pokemon, Améliorer le design, Debug BD Charizard 2e type, Ajout des évènements OnClick</t>
+  </si>
+  <si>
+    <t>05-03-2019</t>
+  </si>
+  <si>
+    <t>BD tblquestion tbltypequestion (Structure + Insert), Requête PHP questions</t>
+  </si>
+  <si>
+    <t>06-03-2019</t>
+  </si>
+  <si>
+    <t>Affichage + Code page quiz, Intent, JSON, tests JSON, tests affichage + fonctionnement quiz</t>
+  </si>
+  <si>
+    <t>07-03-2019</t>
+  </si>
+  <si>
+    <t>Debug quiz noQuestion</t>
+  </si>
+  <si>
+    <t>13-03-2019</t>
+  </si>
+  <si>
+    <t>Page Résultat + SaveInstance Quiz</t>
+  </si>
+  <si>
+    <t>14-03-2019</t>
+  </si>
+  <si>
+    <t>SaveInstance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Orientation Paysage : Info_quiz, fiche_pokemon, quiz, resultat, pokemon_vedettes. Ajustement scrollbars fiche_pokemon. </t>
+  </si>
+  <si>
+    <t>J'ai fini le noyau avec deux heures de moins que prévu (64h au lieu de 66h), tout est fonctionnel. Il resterait peut-être à modifier un peu le scrollview de la liste pokémon pour que l'interface soit moins longue à charger. Le temps estimé pour chaque partie n'a pas été respecté, mais j'avais gagné du temps ailleurs, donc ça c'est équilibré. L'itération 3 et 4 vont donc pouvoir servir à faire une bonne partie du contenu complémentaire. En bref, je crois que ça a été une très bonne itération, même si j'ai travaillé 41,5h au lieu de 21h, le travail a bien avancé sans prendre de retard.</t>
   </si>
 </sst>
 </file>
@@ -419,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +513,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2373,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2508,34 +2553,70 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="15">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -2594,7 +2675,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>25.25</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2607,7 +2688,9 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2616,22 +2699,24 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B46" s="27"/>
+    </row>
+    <row r="47" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2648,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2881,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -312,6 +312,39 @@
   </si>
   <si>
     <t>J'ai fini le noyau avec deux heures de moins que prévu (64h au lieu de 66h), tout est fonctionnel. Il resterait peut-être à modifier un peu le scrollview de la liste pokémon pour que l'interface soit moins longue à charger. Le temps estimé pour chaque partie n'a pas été respecté, mais j'avais gagné du temps ailleurs, donc ça c'est équilibré. L'itération 3 et 4 vont donc pouvoir servir à faire une bonne partie du contenu complémentaire. En bref, je crois que ça a été une très bonne itération, même si j'ai travaillé 41,5h au lieu de 21h, le travail a bien avancé sans prendre de retard.</t>
+  </si>
+  <si>
+    <t>18-03-2019</t>
+  </si>
+  <si>
+    <t>Réparation bug Quiz</t>
+  </si>
+  <si>
+    <t>Modélisation BD, script de création, début script d'insertion</t>
+  </si>
+  <si>
+    <t>21-03-2019</t>
+  </si>
+  <si>
+    <t>20-03-2019</t>
+  </si>
+  <si>
+    <t>Continuer le script d'insertion, Set le Git pour le projet Android</t>
+  </si>
+  <si>
+    <t>28-03-2019</t>
+  </si>
+  <si>
+    <t>29-03-2019</t>
+  </si>
+  <si>
+    <t>Continuer le script d'insertion</t>
+  </si>
+  <si>
+    <t>01-04-2019</t>
+  </si>
+  <si>
+    <t>02-04-2019</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2418,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -2733,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,39 +2824,81 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2912,7 +2987,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Fiche route</t>
   </si>
   <si>
-    <t>Fiche place d'intérêts</t>
-  </si>
-  <si>
     <t>Fiche Gym</t>
   </si>
   <si>
@@ -345,6 +342,24 @@
   </si>
   <si>
     <t>02-04-2019</t>
+  </si>
+  <si>
+    <t>Fiche landmarks</t>
+  </si>
+  <si>
+    <t>03-04-2019</t>
+  </si>
+  <si>
+    <t>04-04-2019</t>
+  </si>
+  <si>
+    <t>06-04-2019</t>
+  </si>
+  <si>
+    <t>07-04-2019</t>
+  </si>
+  <si>
+    <t>Fière du travail accompli, même si je n'ai pas eu tout le temps voulu pour travailler sur mon projet. Le script d'insertion n'est donc pas fini, comme j'avais prévu initialement. J'ai terminé de remplir la plupart des tables, il me reste la table tblpokemonendroit qui est un gros morceau, ensuite ça devrait bien aller. Je suis particulièrement fière de cette itération parce que j'ai travaillé en continu sur mon projet à chaque moment possible.</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1828,7 @@
   <dimension ref="A6:C44"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
@@ -2013,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3">
         <v>15</v>
@@ -2046,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -2079,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -2090,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -2101,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -2112,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -2123,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2160,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2219,10 +2234,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15">
         <v>4</v>
@@ -2230,10 +2245,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2241,10 +2256,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2252,10 +2267,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2263,10 +2278,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2274,10 +2289,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="15">
         <v>0.5</v>
@@ -2285,10 +2300,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -2296,10 +2311,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2307,10 +2322,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C22" s="15">
         <v>5</v>
@@ -2407,7 +2422,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2418,7 +2433,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2510,10 +2525,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -2521,10 +2536,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2532,10 +2547,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C16" s="15">
         <v>5.5</v>
@@ -2543,10 +2558,10 @@
     </row>
     <row r="17" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="15">
         <v>2.25</v>
@@ -2554,10 +2569,10 @@
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C18" s="15">
         <v>4.5</v>
@@ -2565,10 +2580,10 @@
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="15">
         <v>1.5</v>
@@ -2576,10 +2591,10 @@
     </row>
     <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="C20" s="15">
         <v>7.5</v>
@@ -2587,10 +2602,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C21" s="15">
         <v>4</v>
@@ -2598,10 +2613,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C22" s="15">
         <v>6.25</v>
@@ -2609,10 +2624,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
@@ -2620,10 +2635,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C24" s="15">
         <v>2</v>
@@ -2631,10 +2646,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C25" s="15">
         <v>1</v>
@@ -2642,10 +2657,10 @@
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="15">
         <v>2</v>
@@ -2733,7 +2748,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2766,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,10 +2840,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -2836,10 +2851,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="15">
         <v>3.5</v>
@@ -2847,10 +2862,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="15">
         <v>3.5</v>
@@ -2858,10 +2873,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="15">
         <v>3</v>
@@ -2869,10 +2884,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C18" s="15">
         <v>4</v>
@@ -2880,10 +2895,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="15">
         <v>4</v>
@@ -2891,34 +2906,58 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2987,7 +3026,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>22.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3000,7 +3039,9 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -3009,22 +3050,24 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="26" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -360,6 +360,33 @@
   </si>
   <si>
     <t>Fière du travail accompli, même si je n'ai pas eu tout le temps voulu pour travailler sur mon projet. Le script d'insertion n'est donc pas fini, comme j'avais prévu initialement. J'ai terminé de remplir la plupart des tables, il me reste la table tblpokemonendroit qui est un gros morceau, ensuite ça devrait bien aller. Je suis particulièrement fière de cette itération parce que j'ai travaillé en continu sur mon projet à chaque moment possible.</t>
+  </si>
+  <si>
+    <t>08-04-2019</t>
+  </si>
+  <si>
+    <t>09-04-2019</t>
+  </si>
+  <si>
+    <t>10-04-2019</t>
+  </si>
+  <si>
+    <t>18-04-2019</t>
+  </si>
+  <si>
+    <t>Changer le ScrollView pour un RecyclerView (liste_pokemon)</t>
+  </si>
+  <si>
+    <t>24-04-2019</t>
+  </si>
+  <si>
+    <t>Changer le ScrollView pour un RecyclerView (liste_pokemon). Finalement, décider de garder le ScrollView et changer les filtres</t>
+  </si>
+  <si>
+    <t>25-04-2019</t>
+  </si>
+  <si>
+    <t>Changer les filtres de la liste_pokemon pour avoir moins de données à charger en même temps. Modifier quelques PHP (enlever les anciens pour les filtres et en mettre un nouveau), Corriger le PHP InfosPokemon</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -3084,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,34 +3169,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -3263,7 +3326,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Changer les filtres de la liste_pokemon pour avoir moins de données à charger en même temps. Modifier quelques PHP (enlever les anciens pour les filtres et en mettre un nouveau), Corriger le PHP InfosPokemon</t>
+  </si>
+  <si>
+    <t>26-04-2019</t>
+  </si>
+  <si>
+    <t>Ajouter un ScrollView horizontal pour les filtres de la page liste_pokemon, ajouter un fichier strings.xml en français canadien (celui de base est en anglais), optimiser la mise en page de la page résultat, modifier la fonction onBackPressed pour la page résultat</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -3111,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3234,10 +3240,16 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -3326,7 +3338,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3377,21 +3389,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3505,10 +3502,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3523,16 +3542,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -393,6 +393,27 @@
   </si>
   <si>
     <t>Ajouter un ScrollView horizontal pour les filtres de la page liste_pokemon, ajouter un fichier strings.xml en français canadien (celui de base est en anglais), optimiser la mise en page de la page résultat, modifier la fonction onBackPressed pour la page résultat</t>
+  </si>
+  <si>
+    <t>30-04-2019</t>
+  </si>
+  <si>
+    <t>01-05-2019</t>
+  </si>
+  <si>
+    <t>Remplissage du dossier de style. Correction du plantage d'Android pour le SDK Platform 27</t>
+  </si>
+  <si>
+    <t>Remplissage du dossier de style. FichePokemon background change selon le type du Pokémon</t>
+  </si>
+  <si>
+    <t>02-05-2019</t>
+  </si>
+  <si>
+    <t>Terminer le dossier de style, nettoyer tout le code, commenter le code</t>
+  </si>
+  <si>
+    <t>Je suis très fière de mon itération, j'ai avancé le plus possible mon script d'insertion et j'ai réussi à nettoyer tout mon code et mes XML pour la présentation, même si ce n'était pas prévu au départ. Je suis quand même déçue de ne pas avoir eu le temps de terminer mon script d'insertion, mais je vais le terminer cet été, donc ça va. Je crois avoir bien géré mon temps, j'ai fait moins d'heures que pour les deux autres itérations, mais c'est tout le temps dont je disposais. J'ai aussi réglé mon problème de ScrollView. Je suis très contente d'avoir trouvé une alternative simple qui m'a permis de régler mon problème de performance. Je sais que ce n'est toujours pas parfait, mais ça me convient pour l'instant. En résumé, je suis satisfaite du travail effectué durant cette itération.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -532,11 +553,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +632,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1860,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -3115,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3252,19 +3288,37 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -3338,7 +3392,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>20.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3351,36 +3405,58 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="30"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="30"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="30"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="30"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="30"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B42:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/estimation_TanyaVanier.xlsx
+++ b/estimation_TanyaVanier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2535,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -3153,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B53"/>
     </sheetView>
   </sheetViews>
@@ -3465,6 +3465,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B829EA7356550D4DA918B6F14EC9D6EC" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f51d9e2f83200f82ba5f8e8aa00071e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e500626028e8b0e78c3df207cfa2d4ba">
     <xsd:element name="properties">
@@ -3578,32 +3593,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -3618,9 +3611,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AE421CF-4A7D-4F90-A39A-5122747E8833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981ED1B8-034E-436B-AE2E-121AFAA1F4AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
